--- a/quotation.xlsx
+++ b/quotation.xlsx
@@ -46,10 +46,10 @@
     <t>Column7</t>
   </si>
   <si>
-    <t>SYNDROME TECHNOLOGIES</t>
-  </si>
-  <si>
-    <t>TL-SG1024D</t>
+    <t>saravana stores</t>
+  </si>
+  <si>
+    <t>kanchipuram-silk</t>
   </si>
   <si>
     <t>Total</t>
@@ -509,10 +509,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -520,7 +520,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="10" spans="2:8">

--- a/quotation.xlsx
+++ b/quotation.xlsx
@@ -46,10 +46,10 @@
     <t>Column7</t>
   </si>
   <si>
-    <t>saravana stores</t>
-  </si>
-  <si>
-    <t>kanchipuram-silk</t>
+    <t>sunlife batteries</t>
+  </si>
+  <si>
+    <t>b5.5omled</t>
   </si>
   <si>
     <t>Total</t>
@@ -509,10 +509,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G3">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -520,7 +520,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="2:8">
